--- a/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -764,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -835,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -906,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -977,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1048,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1119,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1190,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1261,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1332,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1403,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1474,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1545,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1616,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1897,6 +1849,290 @@
         <v>1</v>
       </c>
       <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
         <v>1</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2133,6 +2190,1355 @@
         <v>1</v>
       </c>
       <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="D41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="E41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="F41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="G41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="H41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="I41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="J41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="K41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="L41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="M41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="N41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="O41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="P41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="Q41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="R41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="S41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="T41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="U41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="V41">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="W41">
+        <v>1.000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
         <v>1</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -764,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -835,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -906,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -977,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1048,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1119,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1190,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1261,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1332,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1403,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1474,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1545,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1616,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1897,6 +1867,716 @@
         <v>1</v>
       </c>
       <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
         <v>1</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/UniformA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2577,6 +2583,148 @@
         <v>1</v>
       </c>
       <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
         <v>1</v>
       </c>
     </row>
